--- a/web/excel/referal.xlsx
+++ b/web/excel/referal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCB755C-CF71-4D6E-9AA7-412681D4FBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C80CD23-E23E-4BC3-83AD-323A52242D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,20 @@
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -49,9 +58,6 @@
     <t>Чикарган беморлар суммаси</t>
   </si>
   <si>
-    <t>Хисобланган бонус</t>
-  </si>
-  <si>
     <t>Шундан берилган бонус</t>
   </si>
   <si>
@@ -61,20 +67,26 @@
     <t>Биринчи аванс суммаси</t>
   </si>
   <si>
-    <t>Саналар</t>
+    <t>Соф тушум</t>
+  </si>
+  <si>
+    <t>Хисобланган бонус ва фикс суммалар</t>
+  </si>
+  <si>
+    <t>Сана</t>
   </si>
   <si>
     <t>Лавозими</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реферал коди </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -82,16 +94,22 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF003F2F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF003F2F"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -159,34 +177,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,172 +521,219 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="24.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="24.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" style="9" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9"/>
+      <c r="K4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:13" ht="55.2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="K5" s="9">
+        <f>+I5-J5</f>
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>